--- a/biology/Histoire de la zoologie et de la botanique/British_Ornithologists'_Union/British_Ornithologists'_Union.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/British_Ornithologists'_Union/British_Ornithologists'_Union.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>British_Ornithologists%27_Union</t>
+          <t>British_Ornithologists'_Union</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La British Ornithologists' Union (BOU) est une organisation britannique destinée à encourager l'étude des oiseaux en Angleterre, en Europe et à travers le monde, notamment pour mieux comprendre leur biologie et d'aider à leur protection. Elle est l'une des plus anciennes organisations ornithologiques.
 Elle fut fondée en 1858 par Alfred Newton (1829-1907), le révérend Henry Baker Tristram et d'autres scientifiques.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>British_Ornithologists%27_Union</t>
+          <t>British_Ornithologists'_Union</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Liste des présidents</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1858-1867 : Henry Maurice Drummond-Hay (1814-1896)
 1867-1896 : Lord Lilford (1833-1896)
